--- a/17_PC_data_ind_without_exclusions_for_comp_w_AC.xlsx
+++ b/17_PC_data_ind_without_exclusions_for_comp_w_AC.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woodj\Documents\GRAD SCHOOL - CLEMSON\Project-Specific\R work\USDA-songbirds\USDA-songbirds\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A80672F3-12E6-4E34-B252-EC38D9954125}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20148" windowHeight="8172" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20148" windowHeight="8172" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3visits_unlimited" sheetId="3" r:id="rId1"/>
     <sheet name="3visits_unlimited_0_or_1" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -420,7 +421,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -822,11 +823,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BZ16" sqref="BZ16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7774,11 +7775,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CA46" sqref="CA46"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BS7" sqref="BS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
